--- a/client/python/test.xlsx
+++ b/client/python/test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9675" windowWidth="24000" xWindow="0" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Point" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Accounting" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Point" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Accounting" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="beer">Input!$B$29:$D$30</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>Greenville Convention Center - Alcohol Point Sheets</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Event Number and Name:</t>
   </si>
   <si>
-    <t>Mighty Lame</t>
+    <t>12212</t>
   </si>
   <si>
     <t>Date of Function</t>
@@ -222,10 +222,7 @@
     <t>Aristocrat Vodka</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>.5</t>
+    <t>0e</t>
   </si>
   <si>
     <t>Smirnoff</t>
@@ -2155,8 +2152,8 @@
       <c r="E6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>67</v>
+      <c r="F6" s="47" t="n">
+        <v>0</v>
       </c>
       <c r="G6" s="32">
         <f>E6-F6</f>
@@ -2273,7 +2270,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="7" spans="1:40">
       <c r="C7" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>22</v>
@@ -2399,7 +2396,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="8" spans="1:40">
       <c r="C8" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>25</v>
@@ -2525,7 +2522,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="9" spans="1:40">
       <c r="C9" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>28</v>
@@ -2651,10 +2648,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="10" spans="1:40">
       <c r="B10" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>72</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>31</v>
@@ -2780,7 +2777,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="11" spans="1:40">
       <c r="C11" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>22</v>
@@ -2906,7 +2903,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="12" spans="1:40">
       <c r="C12" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>25</v>
@@ -3032,10 +3029,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="13" spans="1:40">
       <c r="B13" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>76</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>31</v>
@@ -3161,7 +3158,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="14" spans="1:40">
       <c r="C14" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>22</v>
@@ -3287,7 +3284,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="15" spans="1:40">
       <c r="C15" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>25</v>
@@ -3413,10 +3410,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="16" spans="1:40">
       <c r="B16" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>80</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>31</v>
@@ -3542,7 +3539,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="17" spans="1:40">
       <c r="C17" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>22</v>
@@ -3668,7 +3665,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="18" spans="1:40">
       <c r="C18" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>28</v>
@@ -3794,10 +3791,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="19" spans="1:40">
       <c r="B19" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>25</v>
@@ -3923,7 +3920,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="20" spans="1:40">
       <c r="C20" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>28</v>
@@ -4049,10 +4046,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="21" spans="1:40">
       <c r="B21" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>22</v>
@@ -4178,7 +4175,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="22" spans="1:40">
       <c r="C22" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>25</v>
@@ -4304,10 +4301,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="23" spans="1:40">
       <c r="B23" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>90</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>22</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="24" spans="1:40">
       <c r="C24" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>25</v>
@@ -4559,10 +4556,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="25" spans="1:40">
       <c r="B25" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>92</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>93</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>31</v>
@@ -4688,7 +4685,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="26" spans="1:40">
       <c r="C26" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>31</v>
@@ -4814,7 +4811,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="27" spans="1:40">
       <c r="C27" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>31</v>
@@ -4940,7 +4937,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="28" spans="1:40">
       <c r="C28" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>31</v>
@@ -5066,10 +5063,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="29" spans="1:40">
       <c r="B29" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="105" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="105" t="s">
-        <v>98</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>22</v>
@@ -5195,7 +5192,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="30" spans="1:40">
       <c r="C30" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>28</v>
@@ -5321,7 +5318,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="31" spans="1:40">
       <c r="C31" s="105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>25</v>
@@ -5447,7 +5444,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="32" spans="1:40">
       <c r="C32" s="105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>28</v>
@@ -5592,7 +5589,7 @@
       <c r="A34" s="35" t="n"/>
       <c r="B34" s="35" t="n"/>
       <c r="C34" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="44" t="s">
         <v>31</v>
@@ -5855,7 +5852,7 @@
       <c r="B38" s="35" t="n"/>
       <c r="C38" s="35" t="n"/>
       <c r="D38" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" s="32">
         <f>SUM(E34:E37)</f>
@@ -5924,10 +5921,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="40" spans="1:40">
       <c r="A40" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="116" t="s">
         <v>104</v>
-      </c>
-      <c r="B40" s="116" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>42</v>
@@ -6012,7 +6009,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="41" spans="1:40">
       <c r="B41" s="119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>45</v>
@@ -6098,7 +6095,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="42" spans="1:40">
       <c r="B42" s="119" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>42</v>
@@ -6184,7 +6181,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="43" spans="1:40">
       <c r="B43" s="119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>42</v>
@@ -6270,7 +6267,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="44" spans="1:40">
       <c r="B44" s="119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>42</v>
@@ -6356,7 +6353,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="45" spans="1:40">
       <c r="B45" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>45</v>
@@ -6442,7 +6439,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="46" spans="1:40">
       <c r="B46" s="119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>45</v>
@@ -6528,7 +6525,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="47" spans="1:40">
       <c r="B47" s="119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>42</v>
@@ -6614,7 +6611,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="48" spans="1:40">
       <c r="B48" s="119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>42</v>
@@ -6700,7 +6697,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="49" spans="1:40">
       <c r="B49" s="119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>42</v>
@@ -6786,7 +6783,7 @@
     </row>
     <row customHeight="1" ht="14.1" r="50" spans="1:40">
       <c r="B50" s="119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>42</v>
@@ -7051,7 +7048,7 @@
       <c r="A54" s="35" t="n"/>
       <c r="B54" s="35" t="n"/>
       <c r="C54" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="44" t="s">
         <v>42</v>
@@ -7180,7 +7177,7 @@
       <c r="B56" s="35" t="n"/>
       <c r="C56" s="35" t="n"/>
       <c r="D56" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E56" s="41">
         <f>SUM(E54:E55)</f>
@@ -7235,18 +7232,18 @@
       <c r="N57" s="35" t="n"/>
       <c r="O57" s="35" t="n"/>
       <c r="AK57" s="134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row customHeight="1" ht="14.1" r="58" spans="1:40">
       <c r="A58" s="129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="116" t="s">
         <v>35</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="47" t="n">
         <v>0</v>
@@ -7312,7 +7309,7 @@
         <v>36</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E59" s="47" t="n">
         <v>0</v>
@@ -7378,7 +7375,7 @@
         <v>37</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60" s="47" t="n">
         <v>0</v>
@@ -7444,7 +7441,7 @@
         <v>38</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="106" t="n">
         <v>0</v>
@@ -7510,7 +7507,7 @@
         <v>39</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E62" s="47" t="n">
         <v>0</v>
@@ -7572,10 +7569,10 @@
     </row>
     <row customHeight="1" ht="14.1" r="63" spans="1:40">
       <c r="B63" s="116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E63" s="47" t="n">
         <v>0</v>
@@ -7657,10 +7654,10 @@
       <c r="A65" s="35" t="n"/>
       <c r="B65" s="35" t="n"/>
       <c r="C65" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" s="32">
         <f>Q65</f>
@@ -7723,7 +7720,7 @@
       <c r="B66" s="35" t="n"/>
       <c r="C66" s="35" t="n"/>
       <c r="D66" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E66" s="32">
         <f>SUM(E65:E65)</f>
@@ -7919,7 +7916,7 @@
   <sheetData>
     <row customHeight="1" ht="15.75" r="1" spans="1:15">
       <c r="A1" s="137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="65" t="n"/>
       <c r="F1" s="68" t="n"/>
@@ -7951,15 +7948,15 @@
         <v>50</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="18">
         <f>ROUND(Point!G34*Point!L34,0)</f>
@@ -7976,7 +7973,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="18">
         <f>ROUND(Point!G35*Point!L35,0)</f>
@@ -7993,7 +7990,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="18">
         <f>ROUND(Point!G36*Point!L36,0)</f>
@@ -8010,7 +8007,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="18">
         <f>ROUND(Point!G37*Point!L37,0)</f>
@@ -8027,7 +8024,7 @@
     </row>
     <row customFormat="1" r="10" s="74" spans="1:15">
       <c r="A10" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="71">
         <f>SUM(B6:B9)</f>
@@ -8085,7 +8082,7 @@
     </row>
     <row customFormat="1" r="14" s="74" spans="1:15">
       <c r="A14" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="71">
         <f>SUM(B12:B13)</f>
@@ -8109,7 +8106,7 @@
     <row customHeight="1" ht="6.95" r="15" spans="1:15"/>
     <row r="16" spans="1:15">
       <c r="A16" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="18">
         <f>ROUND(Point!G58*Point!L58,0)</f>
@@ -8126,7 +8123,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="18">
         <f>ROUND(Point!G59*Point!L59,0)</f>
@@ -8143,7 +8140,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="18">
         <f>ROUND(Point!G60*Point!L60,0)</f>
@@ -8160,7 +8157,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="18">
         <f>ROUND(Point!G61*Point!L61,0)</f>
@@ -8177,7 +8174,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="18">
         <f>ROUND(Point!G62*Point!L62,0)</f>
@@ -8194,7 +8191,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="18">
         <f>ROUND(Point!G63*Point!L63,0)</f>
@@ -8211,7 +8208,7 @@
     </row>
     <row customFormat="1" r="22" s="74" spans="1:15">
       <c r="A22" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="71">
         <f>SUM(B16:B21)</f>
@@ -8239,7 +8236,7 @@
       </c>
       <c r="B24" s="76" t="n"/>
       <c r="C24" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="160">
         <f>ROUND(SUM(D10,D14,D22),2)</f>
@@ -8256,7 +8253,7 @@
         <v/>
       </c>
       <c r="C25" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="159">
         <f>IF(Input!C9="Y",ROUND(Summary!D24*B25,2),0)</f>
@@ -8272,7 +8269,7 @@
         <v/>
       </c>
       <c r="C26" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D26" s="159">
         <f>ROUND(SUM(D24:D25)*B26,2)</f>
@@ -8286,7 +8283,7 @@
       </c>
       <c r="B27" s="76" t="n"/>
       <c r="C27" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" s="159">
         <f>SUM(D24:D26)</f>
@@ -8295,11 +8292,11 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="76" t="n"/>
       <c r="C28" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="159">
         <f>Input!C12</f>
@@ -8313,7 +8310,7 @@
       </c>
       <c r="B29" s="76" t="n"/>
       <c r="C29" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="159">
         <f>IF(Input!C9="Y",Summary!D27,0)</f>
@@ -8323,7 +8320,7 @@
     <row r="30" spans="1:15">
       <c r="B30" s="76" t="n"/>
       <c r="C30" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="159">
         <f>D29+D28-D27</f>
@@ -8339,25 +8336,25 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row customHeight="1" ht="6.95" r="34" spans="1:15"/>
     <row r="35" spans="1:15">
       <c r="A35" s="140" t="n"/>
       <c r="B35" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="D35" s="71" t="s">
         <v>144</v>
-      </c>
-      <c r="D35" s="71" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="158">
         <f>D6</f>
@@ -8374,7 +8371,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="158">
         <f>D7</f>
@@ -8391,7 +8388,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="158">
         <f>D8</f>
@@ -8408,7 +8405,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="158">
         <f>D9</f>
@@ -8425,7 +8422,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="160">
         <f>SUM(B36:B39)</f>
@@ -8443,7 +8440,7 @@
     <row customHeight="1" ht="6.95" r="41" spans="1:15"/>
     <row r="42" spans="1:15">
       <c r="A42" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B42" s="86">
         <f>Input!D19</f>
@@ -8489,7 +8486,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="160">
         <f>SUM(B44:B45)</f>
@@ -8524,7 +8521,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="160">
         <f>SUM(B48:B48)</f>
@@ -8542,7 +8539,7 @@
     <row customHeight="1" ht="6.95" r="50" spans="1:15"/>
     <row r="51" spans="1:15">
       <c r="A51" s="89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="160">
         <f>B40+B46+B49</f>
@@ -8559,7 +8556,7 @@
     </row>
     <row customFormat="1" hidden="1" r="55" s="68" spans="1:15">
       <c r="F55" s="90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G55" s="162">
         <f>Input!C12</f>
@@ -8568,7 +8565,7 @@
     </row>
     <row customFormat="1" hidden="1" r="56" s="68" spans="1:15">
       <c r="F56" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G56" s="162">
         <f>ROUND(IF(Input!C10=0,0,G55-(G55/(1+Input!C10))),2)</f>
@@ -8577,7 +8574,7 @@
     </row>
     <row customFormat="1" hidden="1" r="57" s="68" spans="1:15">
       <c r="F57" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G57" s="162">
         <f>D14</f>
@@ -8586,7 +8583,7 @@
     </row>
     <row customFormat="1" hidden="1" r="58" s="68" spans="1:15">
       <c r="F58" s="90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G58" s="162">
         <f>D22</f>
@@ -8595,7 +8592,7 @@
     </row>
     <row customFormat="1" hidden="1" r="59" s="68" spans="1:15">
       <c r="F59" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G59" s="162">
         <f>G55-SUM(G56:G58)</f>
@@ -8604,7 +8601,7 @@
     </row>
     <row customFormat="1" hidden="1" r="60" s="68" spans="1:15">
       <c r="F60" s="90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G60" s="162">
         <f>G55-SUM(G56:G59)</f>
@@ -8616,7 +8613,7 @@
     </row>
     <row customFormat="1" hidden="1" r="62" s="68" spans="1:15">
       <c r="F62" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G62" s="162">
         <f>G59</f>
@@ -8625,7 +8622,7 @@
     </row>
     <row customFormat="1" hidden="1" r="63" s="68" spans="1:15">
       <c r="F63" s="90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G63" s="93">
         <f>Point!G38</f>
@@ -8634,7 +8631,7 @@
     </row>
     <row customFormat="1" hidden="1" r="64" s="68" spans="1:15">
       <c r="F64" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G64" s="93">
         <f>26.40825/G62*G63</f>
@@ -8650,13 +8647,13 @@
         <v>51</v>
       </c>
       <c r="I66" s="94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K66" s="94" t="s">
         <v>58</v>
       </c>
       <c r="N66" s="94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row customFormat="1" hidden="1" r="67" s="68" spans="1:15">
@@ -8698,7 +8695,7 @@
     </row>
     <row customFormat="1" hidden="1" r="68" s="68" spans="1:15">
       <c r="F68" s="90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G68" s="93">
         <f>Point!G35</f>
@@ -8735,7 +8732,7 @@
     </row>
     <row customFormat="1" hidden="1" r="69" s="68" spans="1:15">
       <c r="F69" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G69" s="93">
         <f>Point!G36</f>
@@ -8772,7 +8769,7 @@
     </row>
     <row customFormat="1" hidden="1" r="70" s="68" spans="1:15">
       <c r="F70" s="90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G70" s="93">
         <f>Point!G37</f>
@@ -8887,14 +8884,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2">
         <f>Input!C5</f>
         <v/>
       </c>
       <c r="D1" s="141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8907,7 +8904,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2">
         <f>Summary!A25</f>
@@ -8920,7 +8917,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2">
         <f>Input!C6</f>
@@ -8935,22 +8932,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="166">
         <f>Summary!D10</f>
         <v/>
       </c>
       <c r="F6" s="167" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="167" t="s">
         <v>166</v>
-      </c>
-      <c r="G6" s="167" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="166">
         <f>Summary!D14</f>
@@ -8960,7 +8957,7 @@
         <v>454598</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="168">
         <f>G13</f>
@@ -8970,7 +8967,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="166">
         <f>Summary!D22</f>
@@ -8980,7 +8977,7 @@
         <v>464691</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="168" t="n"/>
       <c r="G8" s="168">
@@ -8995,7 +8992,7 @@
         <v>464692</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="168" t="n"/>
       <c r="G9" s="168">
@@ -9008,7 +9005,7 @@
         <v>464693</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" s="168" t="n"/>
       <c r="G10" s="168">
@@ -9018,7 +9015,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="166">
         <f>Summary!C40</f>
@@ -9028,7 +9025,7 @@
         <v>454598</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="168" t="n"/>
       <c r="G11" s="168">
@@ -9038,7 +9035,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="166">
         <f>+Summary!C46</f>
@@ -9048,7 +9045,7 @@
         <v>202220</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="168" t="n"/>
       <c r="G12" s="168">
@@ -9058,7 +9055,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="166">
         <f>+Summary!C49</f>
@@ -9081,20 +9078,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="9">
         <f>Point!G8</f>
         <v/>
       </c>
       <c r="D17" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="62" t="n"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="9">
         <f>Point!G25</f>
@@ -9111,7 +9108,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="9">
         <f>Point!G10</f>
@@ -9128,7 +9125,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="9">
         <f>Point!G13</f>
@@ -9145,7 +9142,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="9">
         <f>Point!G16</f>
@@ -9173,7 +9170,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="9">
         <f>Point!G11</f>
@@ -9190,7 +9187,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="9">
         <f>Point!G26</f>
@@ -9207,7 +9204,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="9">
         <f>Point!G12</f>
@@ -9216,7 +9213,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="9">
         <f>Point!G9</f>
@@ -9225,7 +9222,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="9">
         <f>Point!G24</f>
@@ -9234,7 +9231,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="9">
         <f>Point!G19</f>
@@ -9243,7 +9240,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="9">
         <f>Point!G14</f>
@@ -9252,7 +9249,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="9">
         <f>Point!G20</f>
@@ -9261,7 +9258,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="9">
         <f>Point!G22</f>
@@ -9270,7 +9267,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="9">
         <f>Point!G21</f>
@@ -9279,7 +9276,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="9">
         <f>Point!G17</f>
@@ -9288,7 +9285,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="9">
         <f>Point!G18</f>
@@ -9297,7 +9294,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="9">
         <f>Point!G27</f>
@@ -9306,7 +9303,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="9">
         <f>Point!G23</f>
@@ -9316,7 +9313,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="9">
         <f>Point!G7</f>
@@ -9325,7 +9322,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="9">
         <f>Point!G15</f>
@@ -9334,7 +9331,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="9">
         <f>Point!G28</f>
@@ -9346,7 +9343,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="169">
         <f>Point!G40</f>
@@ -9355,7 +9352,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="169">
         <f>Point!G41</f>
@@ -9365,7 +9362,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="169">
         <f>Point!G42</f>
@@ -9375,7 +9372,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="169">
         <f>Point!G43</f>
@@ -9385,7 +9382,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="169">
         <f>Point!G44</f>
@@ -9395,7 +9392,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="169">
         <f>Point!G45</f>
@@ -9404,7 +9401,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="169">
         <f>Point!G46</f>
@@ -9413,7 +9410,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="169">
         <f>Point!G47</f>
@@ -9422,7 +9419,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" s="169">
         <f>Point!G48</f>
@@ -9431,7 +9428,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="169">
         <f>Point!G49</f>
@@ -9440,7 +9437,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" s="169">
         <f>Point!G50</f>
@@ -9494,7 +9491,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" s="9">
         <f>Point!G63</f>
